--- a/Documentação/Documentação_Tecnica/Plano de UAT - VERSION 2 (1).xlsx
+++ b/Documentação/Documentação_Tecnica/Plano de UAT - VERSION 2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milene.barbosa\Documents\PROJETO 3 SPRINT - ALPHA\grupo4-MyHealth\Documentação\Documentação_Tecnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B142E4-54DB-4D64-B7BB-42F9A7BA82E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6715BA6-DE59-4DDE-A532-71AC14F0F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="1905" windowWidth="15375" windowHeight="8325" tabRatio="503" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="503" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenário - Publicar Refeição" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="159">
   <si>
     <t xml:space="preserve">Projeto: </t>
   </si>
@@ -87,9 +87,6 @@
     <t xml:space="preserve">Caso de Teste: </t>
   </si>
   <si>
-    <t>00.00.001</t>
-  </si>
-  <si>
     <t>Versão:</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t xml:space="preserve">Analista: </t>
   </si>
   <si>
-    <t>Pesquisar Cliente</t>
-  </si>
-  <si>
     <t>\\logserver\Demanda\A-416\LogId1.LOG</t>
   </si>
   <si>
@@ -120,21 +114,12 @@
     <t>Massa de Teste</t>
   </si>
   <si>
-    <t>O sistema deve limitar o preenchimento em 25 caracteres e mostrar uma mensagem que ensine o usuário a abreviar.</t>
-  </si>
-  <si>
-    <t>Logar no sistema, clicar na opção de busca do cliente no menu principal, digitar o NOME do cliente.</t>
-  </si>
-  <si>
     <t>Código do Cliente: 123</t>
   </si>
   <si>
     <t>Código do Cliente:</t>
   </si>
   <si>
-    <t>O sistema não deve permitir a busca e deve avisar o cliente da necessidade do preenchimento de pelos 5 caracteres (letras).</t>
-  </si>
-  <si>
     <t>Nome do cliente: MARCO ANTONIO DE OLIVEIRA MARCONDES SANTANA DE SILVA BUENO E SOUTO.</t>
   </si>
   <si>
@@ -144,15 +129,9 @@
     <t>Nome do Cliente: SENHOR DO ESPAÇO</t>
   </si>
   <si>
-    <t>O sistema deve emitir um aviso de cliente não encontrado na base.</t>
-  </si>
-  <si>
     <t>Nome do Cliente: SENHOR DAS ESTRELAS</t>
   </si>
   <si>
-    <t>O sistema deve apresentar os dados do cliente: "SENHOR DAS ESTRELAS"</t>
-  </si>
-  <si>
     <t>Não Ok. O componente utilizado não permite a limitação, mas o sistema está com aviso correto e não deixa salvar.</t>
   </si>
   <si>
@@ -192,54 +171,24 @@
     <t>\\logserver\Demanda\A-416\TelaId7</t>
   </si>
   <si>
-    <t>Rodar o SQL: Inserir Transação SQL Aqui</t>
-  </si>
-  <si>
-    <t>Configurar ambiente x...y....z..</t>
-  </si>
-  <si>
-    <t>Logar no sistema....</t>
-  </si>
-  <si>
     <t>Grupo</t>
   </si>
   <si>
-    <t>&lt;Ex: Testar a funcionalidade de pesquisa do cliente&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Neste espaço você deve listar tudo aquilo que precisa ser preparado antes de começar a testar. Ex: Start no serviço&gt;</t>
-  </si>
-  <si>
     <t>URL do Log de Evidência</t>
   </si>
   <si>
     <t>Deve ter ou Print ou Log de Evidência</t>
   </si>
   <si>
-    <t>&lt;Nome do analista que testou&gt;</t>
-  </si>
-  <si>
-    <t>&lt;My Health&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Alpha&gt;</t>
-  </si>
-  <si>
     <t>Pesquisar Refeição</t>
   </si>
   <si>
     <t>Código do Cliente: Milene</t>
   </si>
   <si>
-    <t>O sistema sugerir a opção da refeição correspondente em baixo da barra de pesquisa.</t>
-  </si>
-  <si>
     <t>O sistema deve permitir o usuário digitar no campo input.</t>
   </si>
   <si>
-    <t>&lt;Milene Oliveira&gt;</t>
-  </si>
-  <si>
     <t>Publicar Refeição</t>
   </si>
   <si>
@@ -270,18 +219,6 @@
     <t>O sistema deve permitir que o usuário possa visualizar as publicações de outros usuários.</t>
   </si>
   <si>
-    <t>O sistema deve permitir que o usuário curta as publicações que aparecem no seu feed.</t>
-  </si>
-  <si>
-    <t>Descurtir publicação.</t>
-  </si>
-  <si>
-    <t>Curtir publicação.</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir que o usuário descurta as publicações que aparecem no seu feed.</t>
-  </si>
-  <si>
     <t>Cadastrar Usuário</t>
   </si>
   <si>
@@ -375,15 +312,6 @@
     <t>O sistema deve demonstrar a tela de perfil do usuário</t>
   </si>
   <si>
-    <t>Logar no sistema, acessar a tela de "Perfil" visualizar os gráficos.</t>
-  </si>
-  <si>
-    <t>O sistema deve demostrar 2 gráficos ao usuário.</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar a tela de "Perfil" clicar para editar senha enova senha contendo letras e números</t>
-  </si>
-  <si>
     <t>O sistema deve permitir o usuário alterar sua senha</t>
   </si>
   <si>
@@ -393,70 +321,199 @@
     <t>O sistema NÃO deve permitir que o usuário altere sua senha.</t>
   </si>
   <si>
-    <t>Logar no sistema, acessar a tela de "Perfil" visuliazar UM grafico com sua evolução de peso.</t>
-  </si>
-  <si>
-    <t>O sistema deve demonstrar a evolução do peso do usuário baseado no seu peso inicial e meta.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logar no sistema, acessar a tela de "Perfil" visualizar UM grafico com seu consumo diário. </t>
-  </si>
-  <si>
-    <t>O sistema deve demonstrar a quantidade de consumo diário e também quanto ainda pode consumir de acordo com suas metas.</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Logar no sistema, acessar tela de "Refeição", clicar em adicionar, digitar os 3 primeiros caracteres.</t>
-  </si>
-  <si>
-    <t>Logar no sistema, tela de "Refeição", clicar em adicionar, digitar refeição desejada.</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar tela de "Refeição", clicar em adicionar, digitar refeição desejada dar ENTER.</t>
-  </si>
-  <si>
-    <t>O sistema deve adicionar o alimento na refeição.</t>
-  </si>
-  <si>
     <t>Cardapio</t>
   </si>
   <si>
     <t>Logar no sistema, acessar tela de "Cardapio"</t>
   </si>
   <si>
-    <t>O sistema deve demonstrar a tela de cardapio ao usuario.</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar tela de "Cardapio" selecionar o dia que deseja ver a refeição</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir o usuario visualizar as refeições do dia que selecionou</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar tela de "Cardapio", selecionar um dia que seja para frente da data atual</t>
-  </si>
-  <si>
-    <t>O sistema NÃO deve mostrar nenhuma refeição e demonstrar uma mensagem de erro avisando ao usuário para preencher com data atual ao passadas</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logar no sistema, acessar tela de "Dashboard" </t>
   </si>
   <si>
-    <t>O sistema deve demonstrar a tela de Dashboard</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar tela de "Dashboard" visualizar gráfico geral da caloria das refeições.</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir o usuário visiualizar o gráfico</t>
-  </si>
-  <si>
-    <t>Logar no sistema, acessar tela de "Dashboard" clicar na refeição especifica que queria ver</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir o usuário clicar na refeição e direcionar para a tela de visualizar nutrientes por alimento.</t>
+    <t>O sistema deve demonstrar a tela de Dashboard e botões laterias com a opção da refeição</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar no botão "Café da manhã"</t>
+  </si>
+  <si>
+    <t>O sistema deve demonstrar ao usuário os nutrientes da refeição que escolheu.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar no botão "Almoço"</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar no botão "Janta"</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar no botão "Lanches/Outros"</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar no botão "Gerar Relatório"</t>
+  </si>
+  <si>
+    <t>O sistema deve realizar o dowload de um arquivo txt na máquina do usuário.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Dashboard", clicar em alguma data que não há refeição</t>
+  </si>
+  <si>
+    <t>O sistema deve avisar que não há refeições no dia para demonstrar os nutrientes.</t>
+  </si>
+  <si>
+    <t>O sistema deve demonstrar a tela de cardapio ao usuario e os tipos de refeições existentes.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", Clicar no "+" na refeição que queira adicionar.</t>
+  </si>
+  <si>
+    <t>O sistema deve levar o usuário a tela de lista de alimentos.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", Clicar em "Visualizar sua refeição".</t>
+  </si>
+  <si>
+    <t>O sistema deve levar o usuário a tela de alimentos inseridos.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", Clicar em "Visualizar sua refeição", Clicar em uma data que não tem registro de refeição.</t>
+  </si>
+  <si>
+    <t>O sistema deve levar o usuário a tela de alimentos inseridos mas NÃO deve mostrar a lista de alimentos.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", Clicar em "Visualizar sua refeição", Clicar em uma data que há registro de refeição.</t>
+  </si>
+  <si>
+    <t>O sistema deve levar o usuário a tela de alimentos inseridos e deve mostrar a lista de alimentos.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", clicar em adicionar.</t>
+  </si>
+  <si>
+    <t>O sistema deve direcionar o usuário para uma tela de adicionar refeição.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", clicar em adicionar, clicar no input de nome do alimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logar no sistema, acessar tela de "Cardapio", clicar em adicionar, clicar no input de nome do alimento, digitar as três primeiras letras do alimento. </t>
+  </si>
+  <si>
+    <t>O sistema deve sugerir os alimentos.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", clicar em adicionar, clicar no input de nome do alimento, digitar o alimento que inseriu.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir selecionar o alimento.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", clicar em adicionar, clicar no input de nome do alimento, digitar o alimento que inseriu, preencher a quantidade que inseriu.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar tela de "Cardapio", clicar em adicionar, clicar no input de nome do alimento, digitar um alimento que não existe.</t>
+  </si>
+  <si>
+    <t>O sistema deve deve avisar que não existe esse alimento.</t>
+  </si>
+  <si>
+    <t>Código do Cliente: 7</t>
+  </si>
+  <si>
+    <t>Código do Cliente:7</t>
+  </si>
+  <si>
+    <t>Nome do Cliente: 7</t>
+  </si>
+  <si>
+    <t>Nome do cliente: 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de publicar refeição</t>
+  </si>
+  <si>
+    <t>My Health</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Milene Oliveira</t>
+  </si>
+  <si>
+    <t>00.00.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Startar aplicação </t>
+  </si>
+  <si>
+    <t>Rodas aplicação no Azure</t>
+  </si>
+  <si>
+    <t>Logar no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de cadastrar usuário no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de realizar login do usuário no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de visualizar dashboard do sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de visualizar cardapio no sistema</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de pesquisar e adicionar refeição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de atualizar perfil</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Testar a funcionalidade de visualizar outras publicações</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" visualizar os dados do seu perfil.</t>
+  </si>
+  <si>
+    <t>O sistema deve demostrar todas as informações do perfil.</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" clicar para editar senha e nova senha contendo letras e números</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" clicar para editar email.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário altere seu email</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" clicar para adicionar peso.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário acrescente seu peso no perfil</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" clicar para adicionar altura.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário acrescente sua altura no perfil</t>
+  </si>
+  <si>
+    <t>teste.log</t>
+  </si>
+  <si>
+    <t>Logar no sistema, acessar a tela de "Perfil" clicar para adicionar imagem de perfil.</t>
+  </si>
+  <si>
+    <t>O sistema deve permitir que o usuário adicione sua foto de perfil e que apareça no perfil a foto que realizou o upload</t>
+  </si>
+  <si>
+    <t>tes.log</t>
   </si>
 </sst>
 </file>
@@ -603,7 +660,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -683,6 +740,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -731,7 +799,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,35 +898,51 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -880,6 +964,20 @@
     <cellStyle name="Normal 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -915,20 +1013,6 @@
         <bottom/>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1012,7 +1096,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EA4FBE14-0610-455C-854C-16A0FE715D85}" name="Tabela5" displayName="Tabela5" ref="B7:K15" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EA4FBE14-0610-455C-854C-16A0FE715D85}" name="Tabela5" displayName="Tabela5" ref="B7:K15" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="B7:K15" xr:uid="{4D3AEEB7-7DA8-4C41-95EE-DDAB315F5F26}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C7612FCF-045E-493E-AE95-196B0DA67277}" name="Id do TC"/>
@@ -1353,13 +1437,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="4" customWidth="1"/>
@@ -1382,39 +1466,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7">
-        <v>44323</v>
+        <v>44354</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1425,38 +1509,35 @@
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="27"/>
+      <c r="B8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I16" s="26" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J16" s="26"/>
     </row>
@@ -1471,13 +1552,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G17" s="25" t="s">
         <v>10</v>
@@ -1486,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="R17" s="14"/>
@@ -1501,29 +1582,29 @@
         <v>4</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
@@ -1535,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="17" t="s">
@@ -1554,10 +1635,10 @@
         <v>13</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
@@ -1569,16 +1650,16 @@
         <v>11</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="17" t="s">
@@ -1588,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
@@ -1609,7 +1690,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -1617,7 +1698,7 @@
         <v>8</v>
       </c>
       <c r="B24" s="22">
-        <v>44340</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -1643,15 +1724,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1686A59-3ABC-433C-A86B-DD598413F7C5}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
@@ -1668,40 +1749,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>66</v>
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7">
-        <v>44323</v>
+        <v>44354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
@@ -1714,13 +1816,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>10</v>
@@ -1729,10 +1831,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,96 +1842,37 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J8" r:id="rId1" xr:uid="{0B1A2244-AA1D-4D4C-8345-143F3ECA4BBD}"/>
-    <hyperlink ref="J9" r:id="rId2" xr:uid="{3AECE216-C5D7-4A5A-8278-A625D11743DD}"/>
-    <hyperlink ref="J10" r:id="rId3" xr:uid="{CB38E499-9C09-449E-973A-D2495E38EEF3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1837,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20488D83-7888-49E9-A334-2706609499C0}">
-  <dimension ref="A12:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:J19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1857,6 +1900,67 @@
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
     <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>1</v>
@@ -1868,13 +1972,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>10</v>
@@ -1883,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -1894,29 +1998,29 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -1924,16 +2028,16 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17" t="s">
@@ -1943,10 +2047,10 @@
         <v>13</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -1954,16 +2058,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
@@ -1973,10 +2077,10 @@
         <v>13</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="135" x14ac:dyDescent="0.2">
@@ -1984,46 +2088,46 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
@@ -2033,43 +2137,104 @@
         <v>13</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J13" r:id="rId1" xr:uid="{48A43A7E-2FAE-480C-99F3-4ED7A825A1E3}"/>
     <hyperlink ref="J15" r:id="rId2" xr:uid="{C6EE12A1-15D0-4531-9BC6-445CD7EC28E2}"/>
@@ -2084,10 +2249,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFC0B9E-070F-4100-8E9C-3CE4E70AC11B}">
-  <dimension ref="A12:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2104,6 +2269,67 @@
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>1</v>
@@ -2115,13 +2341,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="25" t="s">
         <v>10</v>
@@ -2130,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.2">
@@ -2141,46 +2367,46 @@
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17" t="s">
@@ -2190,27 +2416,27 @@
         <v>13</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
@@ -2220,10 +2446,10 @@
         <v>13</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.2">
@@ -2231,46 +2457,46 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="17" t="s">
@@ -2280,82 +2506,53 @@
         <v>13</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>20</v>
-      </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J13" r:id="rId1" xr:uid="{6A988D39-110D-41E0-BF10-ADEB820C5F52}"/>
-    <hyperlink ref="J19" r:id="rId2" xr:uid="{A0E839EE-B70A-4E0B-BE41-2847EC963E5E}"/>
-    <hyperlink ref="I19" r:id="rId3" xr:uid="{1F21FE99-98A3-43E9-84A4-DE7EDBF162AF}"/>
-    <hyperlink ref="J15" r:id="rId4" xr:uid="{2D56CC71-3866-4FFA-B297-430B9033EEA7}"/>
-    <hyperlink ref="J14" r:id="rId5" xr:uid="{ACF3F55C-6158-4826-9435-A6DEEDE17431}"/>
-    <hyperlink ref="J16" r:id="rId6" xr:uid="{B36C1353-7D27-4999-BF33-62BE76FAC567}"/>
-    <hyperlink ref="J17" r:id="rId7" xr:uid="{32BAF416-6C27-4D24-9180-07FA020F07D4}"/>
-    <hyperlink ref="J18" r:id="rId8" xr:uid="{1AE2A70D-F039-4B20-B76E-4B7D1926002A}"/>
+    <hyperlink ref="J15" r:id="rId2" xr:uid="{2D56CC71-3866-4FFA-B297-430B9033EEA7}"/>
+    <hyperlink ref="J14" r:id="rId3" xr:uid="{ACF3F55C-6158-4826-9435-A6DEEDE17431}"/>
+    <hyperlink ref="J16" r:id="rId4" xr:uid="{B36C1353-7D27-4999-BF33-62BE76FAC567}"/>
+    <hyperlink ref="J17" r:id="rId5" xr:uid="{32BAF416-6C27-4D24-9180-07FA020F07D4}"/>
+    <hyperlink ref="J18" r:id="rId6" xr:uid="{1AE2A70D-F039-4B20-B76E-4B7D1926002A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2363,10 +2560,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D771790C-3D97-46FD-B630-B6DC01A1E91A}">
-  <dimension ref="A10:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2384,6 +2581,67 @@
     <col min="11" max="11" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>1</v>
@@ -2395,13 +2653,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>10</v>
@@ -2410,40 +2668,40 @@
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -2451,16 +2709,16 @@
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="E12" s="15" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
@@ -2470,27 +2728,27 @@
         <v>13</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
@@ -2500,57 +2758,57 @@
         <v>13</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="135" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="150" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="105" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
@@ -2560,82 +2818,22 @@
         <v>13</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J11" r:id="rId1" xr:uid="{24D041D5-702F-488C-9C0A-35BA388FB1F0}"/>
-    <hyperlink ref="J17" r:id="rId2" xr:uid="{C2573582-AAE6-4438-A298-38BB23C75663}"/>
-    <hyperlink ref="I17" r:id="rId3" xr:uid="{321D32EB-0127-45AA-A422-86EF386254C4}"/>
-    <hyperlink ref="J13" r:id="rId4" xr:uid="{BA59931B-78E6-42B9-948F-56288A7B665C}"/>
-    <hyperlink ref="J12" r:id="rId5" xr:uid="{29DB42BE-E49B-4C37-AAC6-B87D9F3CA7B2}"/>
-    <hyperlink ref="J14" r:id="rId6" xr:uid="{8E4DB3A2-4477-4915-976D-292DA12337BD}"/>
-    <hyperlink ref="J15" r:id="rId7" xr:uid="{5393EE35-3D8B-4D1E-B8EA-EEABFC673BA9}"/>
-    <hyperlink ref="J16" r:id="rId8" xr:uid="{FD40B982-B278-4564-92C9-6857AD604D83}"/>
+    <hyperlink ref="J13" r:id="rId2" xr:uid="{BA59931B-78E6-42B9-948F-56288A7B665C}"/>
+    <hyperlink ref="J12" r:id="rId3" xr:uid="{29DB42BE-E49B-4C37-AAC6-B87D9F3CA7B2}"/>
+    <hyperlink ref="J14" r:id="rId4" xr:uid="{8E4DB3A2-4477-4915-976D-292DA12337BD}"/>
+    <hyperlink ref="J15" r:id="rId5" xr:uid="{5393EE35-3D8B-4D1E-B8EA-EEABFC673BA9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2643,10 +2841,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BD7BE6-7611-4C9B-A105-978D0D6DAE39}">
-  <dimension ref="A10:J17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2663,6 +2861,67 @@
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="34"/>
+    </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>1</v>
@@ -2674,13 +2933,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10" s="25" t="s">
         <v>10</v>
@@ -2689,10 +2948,10 @@
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J10" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
@@ -2700,46 +2959,46 @@
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
@@ -2749,27 +3008,27 @@
         <v>13</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17" t="s">
@@ -2779,10 +3038,10 @@
         <v>13</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.2">
@@ -2790,46 +3049,46 @@
         <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="120" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>33</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="17" t="s">
@@ -2839,57 +3098,57 @@
         <v>13</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="17" t="s">
@@ -2899,13 +3158,16 @@
         <v>13</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J11" r:id="rId1" xr:uid="{FF48EBDB-AA8B-45C6-9E6A-8B45D308FA4F}"/>
     <hyperlink ref="J17" r:id="rId2" xr:uid="{319F5E43-F4FA-47CE-99C1-1940698218FB}"/>
@@ -2922,10 +3184,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F7E135-B5C9-4282-A878-236EB2CEC7D3}">
-  <dimension ref="A6:J12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2942,7 +3204,66 @@
     <col min="10" max="10" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
@@ -2953,13 +3274,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="25" t="s">
         <v>10</v>
@@ -2968,10 +3289,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.2">
@@ -2979,29 +3300,29 @@
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -3009,16 +3330,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="17" t="s">
@@ -3028,10 +3349,10 @@
         <v>13</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.2">
@@ -3039,16 +3360,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="17" t="s">
@@ -3058,10 +3379,10 @@
         <v>13</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.2">
@@ -3069,46 +3390,46 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17" t="s">
@@ -3118,43 +3439,46 @@
         <v>13</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="J7" r:id="rId1" xr:uid="{3031EF5B-D06A-451F-9F2A-DB189013750D}"/>
     <hyperlink ref="J9" r:id="rId2" xr:uid="{B6CB4C1D-D509-4FAD-A1A9-4ECE4E25F217}"/>
@@ -3169,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D372E5CA-0E64-4210-858B-36CEBE1ADA8A}">
-  <dimension ref="B7:K15"/>
+  <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3189,36 +3513,95 @@
     <col min="11" max="11" width="33.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>44354</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="7" spans="2:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="G7" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>57</v>
+      <c r="J7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="60" x14ac:dyDescent="0.2">
@@ -3226,29 +3609,29 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="45" x14ac:dyDescent="0.2">
@@ -3256,16 +3639,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="17" t="s">
@@ -3275,10 +3658,10 @@
         <v>13</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="45" x14ac:dyDescent="0.2">
@@ -3286,16 +3669,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
@@ -3305,10 +3688,10 @@
         <v>13</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="75" x14ac:dyDescent="0.2">
@@ -3316,46 +3699,46 @@
         <v>12</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17" t="s">
@@ -3365,57 +3748,57 @@
         <v>13</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="45" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="17" t="s">
@@ -3425,33 +3808,36 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="45" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
+      <c r="B15" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="K13" r:id="rId1" xr:uid="{650536D0-063F-4BEF-A726-963CF9E40580}"/>
     <hyperlink ref="K12" r:id="rId2" xr:uid="{93DC5EF3-FE6F-4531-8542-7B9F272B1E52}"/>
